--- a/Shiny/Test/Data/OPX_template.xlsx
+++ b/Shiny/Test/Data/OPX_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torbjornottersen/Documents/ISSSV1337/ISSSV1337-Case/Shiny/Test/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7184215cb1ebccca/Documents/ISSSV1337/ISSSV1337-Case/Shiny/Test/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AECCE1-E591-214C-BF69-2B820876F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{FD2DE2A4-D863-934E-9247-64C45BD074B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F1CE280-D70E-8A46-86E7-F8252E4F13F7}"/>
   <bookViews>
     <workbookView xWindow="28280" yWindow="4620" windowWidth="12100" windowHeight="21360" xr2:uid="{53754C84-E169-0147-918E-884E18682F79}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Equity</t>
+  </si>
+  <si>
+    <t>Care Norge</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AE676F-2AEC-6041-849D-D057AD5F77E1}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,14 +551,29 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2">
+        <v>252728</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -564,14 +582,29 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
+      <c r="F4">
+        <v>188</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -580,6 +613,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -588,6 +627,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -596,6 +641,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -604,6 +655,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -612,6 +669,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -620,6 +683,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -628,6 +697,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -636,6 +711,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2020</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -647,6 +728,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -658,6 +745,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2020</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -669,6 +762,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -679,7 +778,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
@@ -690,7 +795,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2020</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -701,7 +812,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -712,7 +829,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -723,7 +846,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -734,7 +863,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -745,7 +880,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -756,7 +897,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -767,7 +914,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
@@ -778,7 +931,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2020</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
@@ -786,7 +945,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
@@ -794,7 +959,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2019</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -802,7 +973,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
@@ -810,7 +987,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2019</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
@@ -818,7 +1001,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2019</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
@@ -826,7 +1015,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
@@ -834,7 +1029,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2019</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -842,7 +1043,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -850,7 +1057,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2019</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -858,7 +1071,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -866,7 +1085,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2019</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -874,7 +1099,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2019</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
@@ -886,7 +1117,13 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
@@ -898,7 +1135,13 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2019</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -910,7 +1153,13 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -922,7 +1171,13 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2019</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -933,7 +1188,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2019</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -944,7 +1205,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2019</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
@@ -955,7 +1222,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2019</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -966,7 +1239,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2019</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -977,7 +1256,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2019</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -988,7 +1273,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -999,7 +1290,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2019</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
       <c r="C49" t="s">
         <v>29</v>
       </c>
@@ -1010,7 +1307,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -1021,7 +1324,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
       <c r="C51" t="s">
         <v>37</v>
       </c>
